--- a/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021--final.xlsx
+++ b/documentos/MODELO LIBRO SUELDO DIGITAL FINAL octubre 2021--final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVIER\Documents\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EC2320-1343-4E03-B2DE-91DBA626C666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A948AF-65FC-4C14-9938-24DB70E137E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIGINAL" sheetId="3" r:id="rId1"/>
@@ -1660,9 +1660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7FFAD-1B0A-42C5-95C8-94CD4283EDB6}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C48" sqref="C48:O48"/>
+      <selection pane="topRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="26" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>30</v>
@@ -3492,43 +3492,43 @@
         <v>92</v>
       </c>
       <c r="C49" s="6">
-        <v>52934.62</v>
+        <v>60302.62</v>
       </c>
       <c r="D49" s="39">
-        <v>52934.62</v>
+        <v>60302.62</v>
       </c>
       <c r="E49" s="46">
-        <v>55396.3</v>
+        <v>63107.5</v>
       </c>
       <c r="F49" s="6">
-        <v>78224</v>
+        <v>87697.21</v>
       </c>
       <c r="G49" s="46">
-        <v>68803</v>
+        <v>76593</v>
       </c>
       <c r="H49" s="6">
-        <v>81355.360000000001</v>
+        <v>90828.57</v>
       </c>
       <c r="I49" s="6">
-        <v>52000.800000000003</v>
+        <v>59790.8</v>
       </c>
       <c r="J49" s="39">
-        <v>50437.38</v>
+        <v>58227.38</v>
       </c>
       <c r="K49" s="6">
-        <v>83413.149999999994</v>
+        <v>93406.15</v>
       </c>
       <c r="L49" s="46">
-        <v>69224.399999999994</v>
+        <v>77014.399999999994</v>
       </c>
       <c r="M49" s="6">
-        <v>54243</v>
+        <v>62033</v>
       </c>
       <c r="N49" s="6">
-        <v>54349.54</v>
+        <v>62661.54</v>
       </c>
       <c r="O49" s="6">
-        <v>52693.2</v>
+        <v>60483.199999999997</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
